--- a/Data/LimeSurveyQuestionnaires/Processed/dQuestionnaireTot.xlsx
+++ b/Data/LimeSurveyQuestionnaires/Processed/dQuestionnaireTot.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF61"/>
+  <dimension ref="A1:AG61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,115 +405,120 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>MainGame</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>LastSession</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Finished</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>LastSession2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>LastSessionDuration</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TestQOK</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Test01</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Test02</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CAST</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Fager</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>AUDIT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Routine</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>UPPS</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>NegUr</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>PosUr</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LoPr</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LoPe</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SS</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>PosAff</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>NegAff</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>BDI</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CERQAdaptative</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>CERQNonAdaptative</t>
         </is>
@@ -559,22 +564,24 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -582,46 +589,49 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>7</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>36</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>57</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>15</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>12</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>15</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>11</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>40</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>19</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>77</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>26</v>
       </c>
     </row>
@@ -665,20 +675,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -688,49 +700,52 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>1</v>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>19</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>14</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>29</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>49</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>10</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>6</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>14</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>9</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>10</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>29</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>23</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>9</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>62</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>51</v>
       </c>
     </row>
@@ -769,19 +784,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -789,46 +801,49 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>42</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>65</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>12</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>11</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>14</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>16</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>12</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>39</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>25</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>63</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>40</v>
       </c>
     </row>
@@ -867,20 +882,22 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
         <v>1</v>
       </c>
@@ -888,48 +905,51 @@
         <v>1</v>
       </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>17</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>12</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>28</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>46</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>10</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>9</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>10</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>12</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>5</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>34</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>21</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>7</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>63</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>33</v>
       </c>
     </row>
@@ -968,17 +988,14 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -988,49 +1005,52 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>6</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>22</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>56</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>12</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>9</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>16</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>9</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>42</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>22</v>
       </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
       <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
         <v>39</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>38</v>
       </c>
     </row>
@@ -1069,19 +1089,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1089,43 +1106,46 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>9</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>23</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>60</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>12</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>11</v>
-      </c>
-      <c r="Y7">
-        <v>12</v>
       </c>
       <c r="Z7">
         <v>12</v>
       </c>
       <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AB7">
         <v>13</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>23</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>12</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>41</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>58</v>
       </c>
     </row>
@@ -1169,20 +1189,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1190,48 +1212,51 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>12</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>27</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>38</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>51</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>10</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>8</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>11</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>12</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>10</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>38</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>17</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>3</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>61</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>28</v>
       </c>
     </row>
@@ -1270,19 +1295,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1291,48 +1313,51 @@
         <v>1</v>
       </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>17</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>10</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>40</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>54</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>12</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8</v>
-      </c>
-      <c r="Y9">
-        <v>13</v>
       </c>
       <c r="Z9">
         <v>13</v>
       </c>
       <c r="AA9">
+        <v>13</v>
+      </c>
+      <c r="AB9">
         <v>8</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>37</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>17</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>4</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>61</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>34</v>
       </c>
     </row>
@@ -1371,19 +1396,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1391,49 +1413,52 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="R10">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>2</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>26</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>52</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>9</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>10</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>15</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>10</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>43</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>25</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>77</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>33</v>
       </c>
     </row>
@@ -1472,19 +1497,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1492,49 +1514,52 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
+      <c r="Q11">
+        <v>1</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>11</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
       <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>20</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>49</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>13</v>
-      </c>
-      <c r="X11">
-        <v>9</v>
       </c>
       <c r="Y11">
         <v>9</v>
       </c>
       <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
         <v>10</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>8</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>32</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>12</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>3</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>70</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>34</v>
       </c>
     </row>
@@ -1573,19 +1598,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1593,46 +1615,49 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>3</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>6</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>16</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>64</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>16</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>12</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>13</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>8</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>44</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>13</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>56</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>36</v>
       </c>
     </row>
@@ -1671,19 +1696,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1692,48 +1714,51 @@
         <v>1</v>
       </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>7</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>6</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>36</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>54</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>8</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>10</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>12</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>13</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>11</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>26</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>23</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>51</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>24</v>
       </c>
     </row>
@@ -1777,22 +1802,24 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1801,48 +1828,51 @@
         <v>1</v>
       </c>
       <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>9</v>
-      </c>
-      <c r="S14">
-        <v>4</v>
       </c>
       <c r="T14">
         <v>4</v>
       </c>
       <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
         <v>28</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>40</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>10</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>7</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>10</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>8</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>36</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>16</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>5</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>80</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>28</v>
       </c>
     </row>
@@ -1886,22 +1916,24 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1910,51 +1942,54 @@
         <v>1</v>
       </c>
       <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>7</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>4</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>12</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>27</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>50</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>11</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>13</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>7</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>9</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>32</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>26</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>8</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>67</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>41</v>
       </c>
     </row>
@@ -1998,22 +2033,24 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2021,46 +2058,49 @@
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="S16">
+      <c r="Q16">
         <v>1</v>
       </c>
       <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <v>9</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>38</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>60</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>13</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>11</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>13</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>14</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>9</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>39</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>27</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>66</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>46</v>
       </c>
     </row>
@@ -2099,19 +2139,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2120,48 +2157,51 @@
         <v>1</v>
       </c>
       <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>6</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>13</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>67</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>16</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>12</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>15</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>16</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>8</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>45</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>13</v>
       </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
       <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
         <v>59</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>31</v>
       </c>
     </row>
@@ -2200,19 +2240,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2220,46 +2257,49 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="S18">
-        <v>4</v>
+      <c r="Q18">
+        <v>1</v>
       </c>
       <c r="T18">
         <v>4</v>
       </c>
       <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
         <v>15</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>57</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>9</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>10</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>15</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>16</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>7</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>35</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>17</v>
       </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
       <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
         <v>77</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>33</v>
       </c>
     </row>
@@ -2303,22 +2343,24 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Poker</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2326,43 +2368,46 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>18</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>37</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>76</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>16</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>14</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>16</v>
-      </c>
-      <c r="Z19">
-        <v>15</v>
       </c>
       <c r="AA19">
         <v>15</v>
       </c>
       <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
         <v>36</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>18</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>79</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>43</v>
       </c>
     </row>
@@ -2401,19 +2446,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2421,46 +2463,49 @@
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="S20">
+      <c r="Q20">
         <v>1</v>
       </c>
       <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>23</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>47</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>53</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>8</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>7</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>10</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>16</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>12</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>37</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>18</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>64</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>42</v>
       </c>
     </row>
@@ -2504,22 +2549,24 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2527,46 +2574,49 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="S21">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>13</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>30</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>58</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>15</v>
-      </c>
-      <c r="X21">
-        <v>11</v>
       </c>
       <c r="Y21">
         <v>11</v>
       </c>
       <c r="Z21">
+        <v>11</v>
+      </c>
+      <c r="AA21">
         <v>13</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>8</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>34</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>12</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>65</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>23</v>
       </c>
     </row>
@@ -2610,22 +2660,24 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2633,49 +2685,52 @@
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="Q22">
+        <v>1</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>24</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>35</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>64</v>
-      </c>
-      <c r="W22">
-        <v>12</v>
       </c>
       <c r="X22">
         <v>12</v>
       </c>
       <c r="Y22">
+        <v>12</v>
+      </c>
+      <c r="Z22">
         <v>16</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>15</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>9</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>37</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>11</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>56</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>23</v>
       </c>
     </row>
@@ -2714,19 +2769,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2734,49 +2786,52 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>0</v>
+      <c r="Q23">
+        <v>1</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>13</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>44</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>54</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>8</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>7</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>11</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>16</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>12</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>34</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>25</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>10</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>55</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>66</v>
       </c>
     </row>
@@ -2815,19 +2870,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2835,46 +2892,49 @@
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>24</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>37</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>57</v>
-      </c>
-      <c r="W24">
-        <v>10</v>
       </c>
       <c r="X24">
         <v>10</v>
       </c>
       <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
         <v>12</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>15</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>27</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>19</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>10</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>50</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>48</v>
       </c>
     </row>
@@ -2913,19 +2973,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2933,46 +2990,49 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="S25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>6</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>25</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>68</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>15</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>15</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>13</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>11</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>39</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>13</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>83</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>28</v>
       </c>
     </row>
@@ -3016,22 +3076,24 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3040,48 +3102,51 @@
         <v>1</v>
       </c>
       <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>6</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>7</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>14</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>41</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>43</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>6</v>
-      </c>
-      <c r="Y26">
-        <v>13</v>
       </c>
       <c r="Z26">
         <v>13</v>
       </c>
       <c r="AA26">
+        <v>13</v>
+      </c>
+      <c r="AB26">
         <v>7</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>38</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>24</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>87</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>42</v>
       </c>
     </row>
@@ -3120,19 +3185,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3140,43 +3207,46 @@
       <c r="P27">
         <v>1</v>
       </c>
-      <c r="T27">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="U27">
         <v>15</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>27</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>56</v>
-      </c>
-      <c r="W27">
-        <v>9</v>
       </c>
       <c r="X27">
         <v>9</v>
       </c>
       <c r="Y27">
+        <v>9</v>
+      </c>
+      <c r="Z27">
         <v>11</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>13</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>14</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>32</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>20</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>76</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>31</v>
       </c>
     </row>
@@ -3220,20 +3290,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
@@ -3241,48 +3313,51 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="U28">
         <v>22</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>26</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>48</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>9</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>8</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>11</v>
-      </c>
-      <c r="Z28">
-        <v>10</v>
       </c>
       <c r="AA28">
         <v>10</v>
       </c>
       <c r="AB28">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AC28">
         <v>27</v>
       </c>
       <c r="AD28">
+        <v>27</v>
+      </c>
+      <c r="AE28">
         <v>11</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>78</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>42</v>
       </c>
     </row>
@@ -3321,19 +3396,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3342,48 +3414,51 @@
         <v>1</v>
       </c>
       <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>6</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>9</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>15</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>21</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>47</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>13</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>9</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>11</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>8</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6</v>
-      </c>
-      <c r="AB29">
-        <v>31</v>
       </c>
       <c r="AC29">
         <v>31</v>
       </c>
       <c r="AD29">
+        <v>31</v>
+      </c>
+      <c r="AE29">
         <v>7</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>54</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>45</v>
       </c>
     </row>
@@ -3422,19 +3497,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3442,43 +3514,46 @@
       <c r="P30">
         <v>1</v>
       </c>
-      <c r="T30">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="U30">
         <v>13</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>48</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>52</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>10</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>8</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>14</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>11</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>9</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>35</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>46</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>12</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>73</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>56</v>
       </c>
     </row>
@@ -3517,19 +3592,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3537,46 +3614,49 @@
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="S31">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>16</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>60</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>15</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>10</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>13</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>16</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>6</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>45</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>12</v>
       </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
       <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
         <v>81</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>25</v>
       </c>
     </row>
@@ -3615,19 +3695,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3635,43 +3712,46 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>7</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>17</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>61</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>15</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>10</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>16</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>15</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>5</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>50</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>13</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
       <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <v>89</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>36</v>
       </c>
     </row>
@@ -3715,22 +3795,24 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>Today</t>
         </is>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3738,49 +3820,52 @@
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="R33">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="S33">
         <v>2</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>4</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>24</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>30</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>50</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>4</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>9</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>15</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>13</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>9</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>37</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>22</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>8</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>53</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>39</v>
       </c>
     </row>
@@ -3819,19 +3904,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3839,46 +3921,49 @@
       <c r="P34">
         <v>1</v>
       </c>
-      <c r="S34">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="T34">
         <v>5</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>29</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>28</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>61</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>14</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>9</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>12</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>16</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>10</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>38</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>18</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>6</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>79</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>50</v>
       </c>
     </row>
@@ -3922,20 +4007,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>Bingo</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
       <c r="N35">
         <v>1</v>
       </c>
@@ -3945,49 +4032,52 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="R35">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>2</v>
-      </c>
-      <c r="S35">
-        <v>17</v>
       </c>
       <c r="T35">
         <v>17</v>
       </c>
       <c r="U35">
+        <v>17</v>
+      </c>
+      <c r="V35">
         <v>36</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>54</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>9</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>13</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>14</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>8</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>33</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>29</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>6</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>49</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>30</v>
       </c>
     </row>
@@ -4031,22 +4121,24 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -4054,46 +4146,49 @@
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="S36">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>14</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>44</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>62</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>12</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>11</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>14</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>16</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>9</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>35</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>28</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>3</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>52</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>46</v>
       </c>
     </row>
@@ -4132,19 +4227,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4152,46 +4244,49 @@
       <c r="P37">
         <v>1</v>
       </c>
-      <c r="S37">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="T37">
         <v>5</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>9</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>45</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>71</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>14</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>10</v>
-      </c>
-      <c r="Y37">
-        <v>16</v>
       </c>
       <c r="Z37">
         <v>16</v>
       </c>
       <c r="AA37">
+        <v>16</v>
+      </c>
+      <c r="AB37">
         <v>15</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>34</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>28</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>6</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>86</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>40</v>
       </c>
     </row>
@@ -4230,19 +4325,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4250,46 +4342,49 @@
       <c r="P38">
         <v>1</v>
       </c>
-      <c r="S38">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>4</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>15</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>23</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>60</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>14</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>10</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>15</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>13</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>8</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>23</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>24</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>11</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>47</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>38</v>
       </c>
     </row>
@@ -4328,19 +4423,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4348,46 +4440,49 @@
       <c r="P39">
         <v>1</v>
       </c>
-      <c r="S39">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="T39">
         <v>9</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>29</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>31</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>54</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>9</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>6</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>12</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>16</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>11</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>35</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>25</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>7</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>70</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>37</v>
       </c>
     </row>
@@ -4431,69 +4526,74 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>Carte</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>ThisWeek</t>
         </is>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>8</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
-      <c r="S40">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>21</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>23</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>27</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>49</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>10</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>8</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>11</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>12</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>8</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>36</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>16</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>6</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>72</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>36</v>
       </c>
     </row>
@@ -4532,19 +4632,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4552,46 +4649,49 @@
       <c r="P41">
         <v>1</v>
       </c>
-      <c r="S41">
+      <c r="Q41">
         <v>1</v>
       </c>
       <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
         <v>21</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>38</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>48</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>8</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>7</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>14</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>8</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>11</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>28</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>20</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>6</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>24</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>48</v>
       </c>
     </row>
@@ -4630,19 +4730,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4650,17 +4747,17 @@
       <c r="P42">
         <v>1</v>
       </c>
-      <c r="T42">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="U42">
         <v>18</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>32</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>72</v>
-      </c>
-      <c r="W42">
-        <v>16</v>
       </c>
       <c r="X42">
         <v>16</v>
@@ -4672,21 +4769,24 @@
         <v>16</v>
       </c>
       <c r="AA42">
+        <v>16</v>
+      </c>
+      <c r="AB42">
         <v>8</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>38</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>27</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>16</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>81</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>45</v>
       </c>
     </row>
@@ -4725,17 +4825,14 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
       <c r="N43">
         <v>0</v>
       </c>
@@ -4745,46 +4842,49 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="S43">
-        <v>1</v>
+      <c r="Q43">
+        <v>0</v>
       </c>
       <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
         <v>13</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>31</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>51</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>13</v>
-      </c>
-      <c r="X43">
-        <v>9</v>
       </c>
       <c r="Y43">
         <v>9</v>
       </c>
       <c r="Z43">
+        <v>9</v>
+      </c>
+      <c r="AA43">
         <v>11</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>9</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>42</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>40</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>12</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>66</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>47</v>
       </c>
     </row>
@@ -4828,22 +4928,24 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>ThisWeek</t>
         </is>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4851,49 +4953,52 @@
       <c r="P44">
         <v>1</v>
       </c>
-      <c r="R44">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="S44">
         <v>8</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>10</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>14</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>31</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>59</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>11</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>8</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>13</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>16</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>11</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>46</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>26</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>5</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>91</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>44</v>
       </c>
     </row>
@@ -4932,19 +5037,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Carte</t>
+        </is>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -4953,51 +5060,54 @@
         <v>1</v>
       </c>
       <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
         <v>19</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>11</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>18</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>26</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>41</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>14</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>7</v>
-      </c>
-      <c r="Y45">
-        <v>8</v>
       </c>
       <c r="Z45">
         <v>8</v>
       </c>
       <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
         <v>4</v>
-      </c>
-      <c r="AB45">
-        <v>26</v>
       </c>
       <c r="AC45">
         <v>26</v>
       </c>
       <c r="AD45">
+        <v>26</v>
+      </c>
+      <c r="AE45">
         <v>8</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>49</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>34</v>
       </c>
     </row>
@@ -5041,20 +5151,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>Bingo</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
       <c r="N46">
         <v>1</v>
       </c>
@@ -5064,43 +5176,46 @@
       <c r="P46">
         <v>1</v>
       </c>
-      <c r="T46">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="U46">
         <v>15</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>28</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>50</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>15</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>6</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>13</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>9</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>7</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>40</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>18</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>3</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>93</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>40</v>
       </c>
     </row>
@@ -5144,69 +5259,74 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>ThisWeek</t>
         </is>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.5</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
-      <c r="S47">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>24</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>32</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>59</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>12</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>13</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>12</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>16</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>6</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>39</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>17</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>3</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>80</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>30</v>
       </c>
     </row>
@@ -5245,19 +5365,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -5265,46 +5382,49 @@
       <c r="P48">
         <v>1</v>
       </c>
-      <c r="S48">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <v>2</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>5</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>36</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>59</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>13</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>12</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>14</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>12</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>8</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>30</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>19</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>5</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>62</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>23</v>
       </c>
     </row>
@@ -5348,22 +5468,24 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>LessThan1Month</t>
         </is>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -5372,51 +5494,54 @@
         <v>1</v>
       </c>
       <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
         <v>15</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>3</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>4</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>15</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>32</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>46</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>11</v>
-      </c>
-      <c r="X49">
-        <v>8</v>
       </c>
       <c r="Y49">
         <v>8</v>
       </c>
       <c r="Z49">
+        <v>8</v>
+      </c>
+      <c r="AA49">
         <v>11</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>8</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>26</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>16</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>8</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>62</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>36</v>
       </c>
     </row>
@@ -5455,19 +5580,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -5475,43 +5597,46 @@
       <c r="P50">
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="Q50">
         <v>1</v>
       </c>
       <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
         <v>10</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>48</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>16</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>7</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>13</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>5</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>7</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>27</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>14</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>3</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>79</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>36</v>
       </c>
     </row>
@@ -5550,19 +5675,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -5570,46 +5692,49 @@
       <c r="P51">
         <v>1</v>
       </c>
-      <c r="S51">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="T51">
         <v>8</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>13</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>41</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>56</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>9</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>7</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>14</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>12</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>14</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>42</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>39</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>8</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>62</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>39</v>
       </c>
     </row>
@@ -5648,19 +5773,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -5668,20 +5790,20 @@
       <c r="P52">
         <v>1</v>
       </c>
-      <c r="S52">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="T52">
         <v>2</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>4</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>19</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>64</v>
-      </c>
-      <c r="W52">
-        <v>14</v>
       </c>
       <c r="X52">
         <v>14</v>
@@ -5690,24 +5812,27 @@
         <v>14</v>
       </c>
       <c r="Z52">
+        <v>14</v>
+      </c>
+      <c r="AA52">
         <v>12</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>10</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>39</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>16</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>2</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>65</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>31</v>
       </c>
     </row>
@@ -5746,19 +5871,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -5766,49 +5893,52 @@
       <c r="P53">
         <v>1</v>
       </c>
-      <c r="R53">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="S53">
         <v>4</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>13</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>21</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>23</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>50</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>12</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>8</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>13</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>12</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>5</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>39</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>22</v>
       </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
       <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
         <v>71</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>40</v>
       </c>
     </row>
@@ -5852,13 +5982,15 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>ThisWeek</t>
         </is>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="M54">
+      <c r="L54">
         <v>1</v>
       </c>
       <c r="N54">
@@ -5870,46 +6002,49 @@
       <c r="P54">
         <v>1</v>
       </c>
-      <c r="S54">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="T54">
         <v>9</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>32</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>43</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>44</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>6</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>5</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>12</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>15</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>6</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>28</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>35</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>20</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>73</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>68</v>
       </c>
     </row>
@@ -5953,22 +6088,24 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>MoreThan1Month</t>
         </is>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -5977,51 +6114,54 @@
         <v>1</v>
       </c>
       <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
         <v>12</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
       <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
         <v>24</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>22</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>26</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>46</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>9</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>8</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>9</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>12</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>8</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>35</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>29</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>5</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>58</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>37</v>
       </c>
     </row>
@@ -6060,19 +6200,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -6080,43 +6217,46 @@
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="T56">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="U56">
         <v>16</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>39</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>62</v>
-      </c>
-      <c r="W56">
-        <v>10</v>
       </c>
       <c r="X56">
         <v>10</v>
       </c>
       <c r="Y56">
+        <v>10</v>
+      </c>
+      <c r="Z56">
         <v>16</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>12</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>14</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>38</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>26</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>10</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>53</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>39</v>
       </c>
     </row>
@@ -6160,13 +6300,15 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>ThisWeek</t>
         </is>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="M57">
+      <c r="L57">
         <v>1</v>
       </c>
       <c r="N57">
@@ -6179,51 +6321,54 @@
         <v>1</v>
       </c>
       <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
         <v>19</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>3</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>15</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>8</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>21</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>51</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>9</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>11</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>15</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>10</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>6</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>45</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>15</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>4</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>75</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>36</v>
       </c>
     </row>
@@ -6262,19 +6407,21 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Poker</t>
+        </is>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -6282,46 +6429,49 @@
       <c r="P58">
         <v>1</v>
       </c>
-      <c r="S58">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>10</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>29</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>57</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>8</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>9</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>11</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>16</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>13</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>33</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>24</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>8</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>62</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>45</v>
       </c>
     </row>
@@ -6360,17 +6510,14 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
         <v>0</v>
       </c>
@@ -6378,48 +6525,51 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="T59">
         <v>5</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>15</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>39</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>52</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>8</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>9</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>11</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>10</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>14</v>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>25</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>21</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>5</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>50</v>
       </c>
-      <c r="AF59">
+      <c r="AG59">
         <v>34</v>
       </c>
     </row>
@@ -6458,19 +6608,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -6479,48 +6626,51 @@
         <v>1</v>
       </c>
       <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
         <v>6</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>9</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>11</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>27</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>59</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>13</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>14</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>13</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>12</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>7</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>35</v>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>15</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>2</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>61</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>36</v>
       </c>
     </row>
@@ -6559,19 +6709,16 @@
           <t>HC</t>
         </is>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Earlier</t>
         </is>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -6579,46 +6726,49 @@
       <c r="P61">
         <v>1</v>
       </c>
-      <c r="S61">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="T61">
         <v>11</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>13</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>39</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>59</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>13</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>10</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>15</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>16</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>5</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>38</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>22</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>3</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>74</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>34</v>
       </c>
     </row>
